--- a/Nama Table.xlsx
+++ b/Nama Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kerja\NTT &amp; LPS\Dokumen LPS\Dokumen Campur - Modul Likuidasi (GLIK)\Domain Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Documents\GitHub\GLIK-DM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4493AF03-E9EC-40EF-9D4A-B479B26601B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC86267-5575-47B6-A946-B1D089953600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4A27DD74-172E-4198-86AD-6CDBEB8A254A}"/>
   </bookViews>
@@ -309,13 +309,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -640,7 +640,7 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D20" sqref="D20:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -686,7 +686,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
@@ -763,14 +763,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -778,20 +778,20 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
@@ -804,7 +804,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" s="8" customFormat="1" ht="169" x14ac:dyDescent="0.35">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="39" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="5" t="s">
         <v>41</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="39" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
@@ -855,12 +855,12 @@
       <c r="E17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="65" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="65" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
@@ -901,11 +901,11 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="15"/>
@@ -914,11 +914,11 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="5" t="s">
         <v>41</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
